--- a/big configuration/监控指标整理 OpenTSDB.xlsx
+++ b/big configuration/监控指标整理 OpenTSDB.xlsx
@@ -4,18 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9225" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="OpenTSDB Metric" sheetId="4" r:id="rId1"/>
-    <sheet name="HBase Metric" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="260">
+  <si>
+    <t>白色是需要重点关注的指标</t>
+  </si>
+  <si>
+    <t>灰色是不需要重点关注的</t>
+  </si>
   <si>
     <t>Metric</t>
   </si>
@@ -282,6 +287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The total number of </t>
     </r>
     <r>
@@ -323,6 +334,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The total number of RPC errors caused invalid </t>
     </r>
     <r>
@@ -370,6 +387,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF002B36"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The total number of RPC errors caused by attempts to </t>
     </r>
     <r>
@@ -875,12 +898,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,14 +947,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,37 +1030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,15 +1059,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,30 +1090,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.8"/>
       <color rgb="FF002B36"/>
       <name val="Courier New"/>
@@ -1087,7 +1103,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,7 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,31 +1130,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,13 +1298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,157 +1316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,9 +1347,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,7 +1375,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,201 +1428,169 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1600,31 +1598,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1633,22 +1628,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1970,10 +1959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1985,1473 +1974,1467 @@
     <col min="5" max="5" width="74.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="5" ht="26.25" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="50" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="50" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="7" ht="50" customHeight="1" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="8" ht="54" spans="1:5">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" ht="50" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="50" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="50" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="50" customHeight="1" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>43</v>
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>49</v>
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="50" customHeight="1" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" ht="50" customHeight="1" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="50" customHeight="1" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5" t="s">
+    </row>
+    <row r="19" ht="50" customHeight="1" spans="1:5">
+      <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" ht="50" customHeight="1" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="5" t="s">
+    </row>
+    <row r="20" ht="50" customHeight="1" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" ht="50" customHeight="1" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="50" customHeight="1" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    <row r="21" ht="50" customHeight="1" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" ht="50" customHeight="1" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="s">
+    <row r="22" ht="50" customHeight="1" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" ht="50" customHeight="1" spans="1:5">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="23" ht="50" customHeight="1" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1" spans="1:5">
-      <c r="A21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1" spans="1:5">
-      <c r="A22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" ht="50" customHeight="1" spans="1:5">
-      <c r="A23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" ht="50" customHeight="1" spans="1:5">
       <c r="A24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" ht="50" customHeight="1" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="50" customHeight="1" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" ht="50" customHeight="1" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
+    </row>
+    <row r="28" ht="50" customHeight="1" spans="1:5">
+      <c r="A28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" ht="50" customHeight="1" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" ht="50" customHeight="1" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" ht="50" customHeight="1" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" ht="50" customHeight="1" spans="1:5">
-      <c r="A28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" ht="50" customHeight="1" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" ht="50" customHeight="1" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" ht="50" customHeight="1" spans="1:5">
-      <c r="A31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>96</v>
+      <c r="A31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32" ht="50" customHeight="1" spans="1:5">
       <c r="A32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" ht="50" customHeight="1" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="E33" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" ht="50" customHeight="1" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" ht="50" customHeight="1" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="E35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="5" t="s">
+    </row>
+    <row r="36" ht="50" customHeight="1" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" ht="50" customHeight="1" spans="1:5">
-      <c r="A33" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="C36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" ht="50" customHeight="1" spans="1:5">
-      <c r="A34" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" ht="50" customHeight="1" spans="1:5">
-      <c r="A35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" ht="50" customHeight="1" spans="1:5">
-      <c r="A36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:5">
       <c r="A37" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:5">
       <c r="A38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" ht="50" customHeight="1" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" ht="50" customHeight="1" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" ht="50" customHeight="1" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="E41" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" ht="50" customHeight="1" spans="1:5">
-      <c r="A39" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" ht="50" customHeight="1" spans="1:5">
-      <c r="A40" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" ht="50" customHeight="1" spans="1:5">
-      <c r="A41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="42" ht="50" customHeight="1" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" ht="50" customHeight="1" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" ht="50" customHeight="1" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="E44" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" ht="50" customHeight="1" spans="1:5">
+      <c r="A45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="43" ht="50" customHeight="1" spans="1:5">
-      <c r="A43" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" ht="50" customHeight="1" spans="1:5">
-      <c r="A44" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" ht="50" customHeight="1" spans="1:5">
-      <c r="A45" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="46" ht="50" customHeight="1" spans="1:5">
       <c r="A46" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" ht="50" customHeight="1" spans="1:5">
       <c r="A47" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" ht="50" customHeight="1" spans="1:5">
+      <c r="A48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" ht="50" customHeight="1" spans="1:5">
+      <c r="A49" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="E49" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" ht="50" customHeight="1" spans="1:5">
+      <c r="A50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" ht="50" customHeight="1" spans="1:5">
-      <c r="A48" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="4" t="s">
+    <row r="51" ht="50" customHeight="1" spans="1:5">
+      <c r="A51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="49" ht="50" customHeight="1" spans="1:5">
-      <c r="A49" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" ht="50" customHeight="1" spans="1:5">
-      <c r="A50" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" ht="50" customHeight="1" spans="1:5">
-      <c r="A51" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="52" ht="50" customHeight="1" spans="1:5">
       <c r="A52" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="C52" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" ht="50" customHeight="1" spans="1:5">
       <c r="A53" s="6" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" ht="50" customHeight="1" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" ht="50" customHeight="1" spans="1:5">
+      <c r="A55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" ht="50" customHeight="1" spans="1:5">
+      <c r="A56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" ht="50" customHeight="1" spans="1:5">
-      <c r="A55" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" ht="50" customHeight="1" spans="1:5">
-      <c r="A56" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="57" ht="50" customHeight="1" spans="1:5">
       <c r="A57" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" ht="50" customHeight="1" spans="1:5">
       <c r="A58" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" ht="50" customHeight="1" spans="1:5">
       <c r="A59" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" ht="50" customHeight="1" spans="1:5">
       <c r="A60" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" ht="50" customHeight="1" spans="1:5">
-      <c r="A61" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>177</v>
+      <c r="A61" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="62" ht="50" customHeight="1" spans="1:5">
       <c r="A62" s="6" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:5">
       <c r="A63" s="6" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" ht="50" customHeight="1" spans="1:5">
       <c r="A64" s="6" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" ht="50" customHeight="1" spans="1:5">
-      <c r="A65" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>191</v>
+      <c r="A65" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="66" ht="50" customHeight="1" spans="1:5">
       <c r="A66" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" ht="50" customHeight="1" spans="1:5">
+      <c r="A67" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="E67" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" ht="50" customHeight="1" spans="1:5">
+      <c r="A68" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" ht="50" customHeight="1" spans="1:5">
+      <c r="A69" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="E69" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E66" s="5" t="s">
+    </row>
+    <row r="70" ht="50" customHeight="1" spans="1:5">
+      <c r="A70" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" ht="50" customHeight="1" spans="1:5">
-      <c r="A67" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="C70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="68" ht="50" customHeight="1" spans="1:5">
-      <c r="A68" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" s="6" t="s">
+    <row r="71" ht="50" customHeight="1" spans="1:5">
+      <c r="A71" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="7" t="s">
+    </row>
+    <row r="72" ht="50" customHeight="1" spans="1:5">
+      <c r="A72" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="69" ht="50" customHeight="1" spans="1:5">
-      <c r="A69" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B69" s="11" t="s">
+      <c r="C72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="11" t="s">
+      <c r="E72" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E69" s="12" t="s">
+    </row>
+    <row r="73" ht="50" customHeight="1" spans="1:5">
+      <c r="A73" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="70" ht="50" customHeight="1" spans="1:5">
-      <c r="A70" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B70" s="11" t="s">
+      <c r="C73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="11" t="s">
+      <c r="E73" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E70" s="12" t="s">
+    </row>
+    <row r="74" ht="50" customHeight="1" spans="1:5">
+      <c r="A74" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="71" ht="50" customHeight="1" spans="1:5">
-      <c r="A71" s="6" t="s">
+      <c r="C74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="E74" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E71" s="13" t="s">
+    </row>
+    <row r="75" ht="50" customHeight="1" spans="1:5">
+      <c r="A75" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="72" ht="50" customHeight="1" spans="1:5">
-      <c r="A72" s="6" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="E75" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="13" t="s">
+    </row>
+    <row r="76" ht="50" customHeight="1" spans="1:5">
+      <c r="A76" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="73" ht="50" customHeight="1" spans="1:5">
-      <c r="A73" s="11" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="E76" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E73" s="15" t="s">
+    </row>
+    <row r="77" ht="50" customHeight="1" spans="1:5">
+      <c r="A77" s="10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="74" ht="50" customHeight="1" spans="1:5">
-      <c r="A74" s="16" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="16" t="s">
+      <c r="E77" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E74" s="18" t="s">
+    </row>
+    <row r="78" ht="50" customHeight="1" spans="1:5">
+      <c r="A78" s="14" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="75" ht="50" customHeight="1" spans="1:5">
-      <c r="A75" s="6" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="E78" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E75" s="13" t="s">
+    </row>
+    <row r="79" ht="50" customHeight="1" spans="1:5">
+      <c r="A79" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="76" ht="50" customHeight="1" spans="1:5">
-      <c r="A76" s="6" t="s">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="E79" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="E76" s="13" t="s">
+    </row>
+    <row r="80" ht="50" customHeight="1" spans="1:5">
+      <c r="A80" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="77" ht="50" customHeight="1" spans="1:5">
-      <c r="A77" s="4" t="s">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="E80" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E77" s="19" t="s">
+    </row>
+    <row r="81" ht="50" customHeight="1" spans="1:5">
+      <c r="A81" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="78" ht="50" customHeight="1" spans="1:5">
-      <c r="A78" s="6" t="s">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="E81" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="6" t="s">
+    </row>
+    <row r="82" ht="50" customHeight="1" spans="1:5">
+      <c r="A82" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="B82" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="79" ht="50" customHeight="1" spans="1:5">
-      <c r="A79" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B79" s="6" t="s">
+      <c r="C82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="E82" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="80" ht="50" customHeight="1" spans="1:5">
-      <c r="A80" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" ht="50" customHeight="1" spans="1:5">
-      <c r="A81" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" ht="50" customHeight="1" spans="1:5">
-      <c r="A82" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:5">
       <c r="A83" s="4" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>247</v>
+        <v>234</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:5">
-      <c r="A84" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>249</v>
+      <c r="A84" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:5">
       <c r="A85" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" ht="50" customHeight="1" spans="1:5">
+      <c r="A86" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" ht="50" customHeight="1" spans="1:5">
-      <c r="A86" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="E86" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:5">
       <c r="A87" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" ht="50" customHeight="1" spans="1:5">
+      <c r="A88" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" ht="50" customHeight="1" spans="1:5">
+      <c r="A89" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" ht="50" customHeight="1" spans="1:5">
+      <c r="A90" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="6" t="s">
+      <c r="E90" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E87" s="13" t="s">
+    </row>
+    <row r="91" ht="50" customHeight="1" spans="1:5">
+      <c r="A91" s="4" t="s">
         <v>257</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/big configuration/监控指标整理 OpenTSDB.xlsx
+++ b/big configuration/监控指标整理 OpenTSDB.xlsx
@@ -898,9 +898,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -946,8 +946,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,6 +1015,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -969,7 +1053,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,7 +1069,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,98 +1090,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.8"/>
       <color rgb="FF002B36"/>
       <name val="Courier New"/>
@@ -1136,7 +1136,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,25 +1202,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,37 +1286,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,31 +1304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,61 +1316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,11 +1347,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,39 +1401,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,25 +1442,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1460,133 +1460,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1962,7 +1962,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/big configuration/监控指标整理 OpenTSDB.xlsx
+++ b/big configuration/监控指标整理 OpenTSDB.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="OpenTSDB Metric" sheetId="4" r:id="rId1"/>
+    <sheet name="API" sheetId="5" r:id="rId2"/>
+    <sheet name="metrics stats" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="287">
   <si>
     <t>白色是需要重点关注的指标</t>
   </si>
@@ -566,7 +568,7 @@
     <t>The number of bytes reported as free by the JVM's Runtime.freeMemory()</t>
   </si>
   <si>
-    <t>jvm的运行时报告为可用的字节数。</t>
+    <t>jvm的运行时报告为可用的内存</t>
   </si>
   <si>
     <t>tsd.jvm.ramused</t>
@@ -575,7 +577,7 @@
     <t>The number of bytes reported as used by the JVM's Runtime.totalMemory()</t>
   </si>
   <si>
-    <t>jvm运行时使用的报告字节数</t>
+    <t>jvm运行时总内存</t>
   </si>
   <si>
     <t>tsd.hbase.latency_50pct</t>
@@ -686,6 +688,9 @@
     <t>客户端执行的增量请求总数</t>
   </si>
   <si>
+    <t>post 请求数量</t>
+  </si>
+  <si>
     <t>type=delete</t>
   </si>
   <si>
@@ -755,6 +760,9 @@
     <t>客户端执行的刷新总数</t>
   </si>
   <si>
+    <t>Manual调用</t>
+  </si>
+  <si>
     <t>tsd.hbase.connections.created</t>
   </si>
   <si>
@@ -891,6 +899,84 @@
   </si>
   <si>
     <t>为删除已压缩的旧数据而对存储进行的删除调用的总数。</t>
+  </si>
+  <si>
+    <t>HTTP style</t>
+  </si>
+  <si>
+    <t>Http style API</t>
+  </si>
+  <si>
+    <t>http://opentsdb.net/docs/build/html/api_http/stats/index.html</t>
+  </si>
+  <si>
+    <t>http://opentsdb.net/docs/build/html/user_guide/stats.html</t>
+  </si>
+  <si>
+    <t>/api/stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/stats/jvm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/stats/query
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/api/stats/region_clients
+</t>
+  </si>
+  <si>
+    <t>/api/stats/threads</t>
+  </si>
+  <si>
+    <t>e.g.</t>
+  </si>
+  <si>
+    <t>http://localhost:4242/api/stats</t>
+  </si>
+  <si>
+    <t>metrics-core</t>
+  </si>
+  <si>
+    <t>An application metrics client for Java integrated with Graphite/OpenTSDB</t>
+  </si>
+  <si>
+    <t>Telnet Style</t>
+  </si>
+  <si>
+    <t>Telnet Style API</t>
+  </si>
+  <si>
+    <t>http://opentsdb.net/docs/build/html/api_telnet/index.html</t>
+  </si>
+  <si>
+    <t>openTSDB详解之Telnet Style API</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/liu16659/article/details/82314350</t>
+  </si>
+  <si>
+    <t>JAR 包</t>
+  </si>
+  <si>
+    <t>TelnetClient    commons-net jar</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>autoscaler.metricstreamers.opentsdbApache</t>
+  </si>
+  <si>
+    <t>metric streamer that retrieves metric values from OpenTSDB</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>http://opentsdb.net/docs/build/html/user_guide/cli/import.html</t>
   </si>
 </sst>
 </file>
@@ -898,17 +984,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -946,25 +1048,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,16 +1073,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,8 +1087,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,76 +1189,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,7 +1208,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1130,13 +1235,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,7 +1361,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,79 +1409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,25 +1433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,43 +1445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,6 +1484,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1384,17 +1528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1413,8 +1551,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,25 +1571,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1460,181 +1589,205 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,1482 +2112,1968 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="11.95" customWidth="1"/>
-    <col min="3" max="3" width="9.45" customWidth="1"/>
-    <col min="4" max="4" width="65.75" customWidth="1"/>
-    <col min="5" max="5" width="74.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="58.875" customWidth="1"/>
+    <col min="6" max="6" width="67.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="26.25" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="26.25" spans="1:6">
+      <c r="A5">
+        <f>SUM(A6:A91)</f>
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="50" customHeight="1" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="1:5">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="50" customHeight="1" spans="1:6">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="1:5">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="54" spans="1:6">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="50" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="50" customHeight="1" spans="1:6">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="40.5" spans="1:5">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="40.5" spans="1:6">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" ht="50" customHeight="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="50" customHeight="1" spans="1:6">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="50" customHeight="1" spans="1:5">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="50" customHeight="1" spans="1:6">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1" spans="1:5">
-      <c r="A13" s="4" t="s">
+    <row r="13" ht="50" customHeight="1" spans="1:6">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="1:5">
-      <c r="A14" s="6" t="s">
+    <row r="14" ht="50" customHeight="1" spans="1:6">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="50" customHeight="1" spans="1:5">
-      <c r="A15" s="4" t="s">
+    <row r="15" ht="50" customHeight="1" spans="1:6">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" ht="50" customHeight="1" spans="1:5">
-      <c r="A16" s="6" t="s">
+    <row r="16" ht="50" customHeight="1" spans="1:6">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" ht="50" customHeight="1" spans="1:5">
-      <c r="A17" s="6" t="s">
+    <row r="17" ht="50" customHeight="1" spans="1:6">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" ht="50" customHeight="1" spans="1:5">
-      <c r="A18" s="6" t="s">
+    <row r="18" ht="50" customHeight="1" spans="1:6">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" ht="50" customHeight="1" spans="1:5">
-      <c r="A19" s="6" t="s">
+    <row r="19" ht="50" customHeight="1" spans="1:6">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" ht="50" customHeight="1" spans="1:5">
-      <c r="A20" s="6" t="s">
+    <row r="20" ht="50" customHeight="1" spans="1:6">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" ht="50" customHeight="1" spans="1:5">
-      <c r="A21" s="6" t="s">
+    <row r="21" ht="50" customHeight="1" spans="1:6">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" ht="50" customHeight="1" spans="1:5">
-      <c r="A22" s="6" t="s">
+    <row r="22" ht="50" customHeight="1" spans="1:6">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" ht="50" customHeight="1" spans="1:5">
-      <c r="A23" s="6" t="s">
+    <row r="23" ht="50" customHeight="1" spans="1:6">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" ht="50" customHeight="1" spans="1:5">
-      <c r="A24" s="6" t="s">
+    <row r="24" ht="50" customHeight="1" spans="1:6">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" ht="50" customHeight="1" spans="1:5">
-      <c r="A25" s="6" t="s">
+    <row r="25" ht="50" customHeight="1" spans="1:6">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" ht="50" customHeight="1" spans="1:5">
-      <c r="A26" s="6" t="s">
+    <row r="26" ht="50" customHeight="1" spans="1:6">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" ht="50" customHeight="1" spans="1:5">
-      <c r="A27" s="6" t="s">
+    <row r="27" ht="50" customHeight="1" spans="1:6">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" ht="50" customHeight="1" spans="1:5">
-      <c r="A28" s="4" t="s">
+    <row r="28" ht="50" customHeight="1" spans="1:6">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" ht="50" customHeight="1" spans="1:5">
-      <c r="A29" s="6" t="s">
+    <row r="29" ht="50" customHeight="1" spans="1:6">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" ht="50" customHeight="1" spans="1:5">
-      <c r="A30" s="6" t="s">
+    <row r="30" ht="50" customHeight="1" spans="1:6">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" ht="50" customHeight="1" spans="1:5">
-      <c r="A31" s="6" t="s">
+    <row r="31" ht="50" customHeight="1" spans="1:6">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" ht="50" customHeight="1" spans="1:5">
-      <c r="A32" s="4" t="s">
+    <row r="32" ht="50" customHeight="1" spans="1:6">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" ht="50" customHeight="1" spans="1:5">
-      <c r="A33" s="4" t="s">
+    <row r="33" ht="50" customHeight="1" spans="1:6">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" ht="50" customHeight="1" spans="1:5">
-      <c r="A34" s="4" t="s">
+    <row r="34" ht="50" customHeight="1" spans="1:6">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" ht="50" customHeight="1" spans="1:5">
-      <c r="A35" s="6" t="s">
+    <row r="35" ht="50" customHeight="1" spans="1:6">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" ht="50" customHeight="1" spans="1:5">
-      <c r="A36" s="6" t="s">
+    <row r="36" ht="50" customHeight="1" spans="1:6">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="50" customHeight="1" spans="1:5">
-      <c r="A37" s="4" t="s">
+    <row r="37" ht="50" customHeight="1" spans="2:6">
+      <c r="B37" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" ht="50" customHeight="1" spans="1:5">
-      <c r="A38" s="4" t="s">
+    <row r="38" ht="50" customHeight="1" spans="1:6">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" ht="50" customHeight="1" spans="1:5">
-      <c r="A39" s="6" t="s">
+    <row r="39" ht="50" customHeight="1" spans="1:6">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" ht="50" customHeight="1" spans="1:5">
-      <c r="A40" s="6" t="s">
+    <row r="40" ht="50" customHeight="1" spans="1:6">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" ht="50" customHeight="1" spans="1:5">
-      <c r="A41" s="6" t="s">
+    <row r="41" ht="50" customHeight="1" spans="1:6">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" ht="50" customHeight="1" spans="1:5">
-      <c r="A42" s="6" t="s">
+    <row r="42" ht="50" customHeight="1" spans="1:6">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" ht="50" customHeight="1" spans="1:5">
-      <c r="A43" s="6" t="s">
+    <row r="43" ht="50" customHeight="1" spans="1:6">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" ht="50" customHeight="1" spans="1:5">
-      <c r="A44" s="6" t="s">
+    <row r="44" ht="50" customHeight="1" spans="1:6">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" ht="50" customHeight="1" spans="1:5">
-      <c r="A45" s="6" t="s">
+    <row r="45" ht="50" customHeight="1" spans="1:6">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" ht="50" customHeight="1" spans="1:5">
-      <c r="A46" s="4" t="s">
+    <row r="46" ht="50" customHeight="1" spans="1:6">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" ht="50" customHeight="1" spans="1:5">
-      <c r="A47" s="6" t="s">
+    <row r="47" ht="50" customHeight="1" spans="1:6">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="E47" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" ht="50" customHeight="1" spans="1:5">
-      <c r="A48" s="6" t="s">
+    <row r="48" ht="50" customHeight="1" spans="1:6">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="49" ht="50" customHeight="1" spans="1:5">
-      <c r="A49" s="6" t="s">
+    <row r="49" ht="50" customHeight="1" spans="1:6">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" ht="50" customHeight="1" spans="1:5">
-      <c r="A50" s="6" t="s">
+    <row r="50" ht="50" customHeight="1" spans="1:6">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="F50" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" ht="50" customHeight="1" spans="1:5">
-      <c r="A51" s="4" t="s">
+    <row r="51" ht="50" customHeight="1" spans="1:6">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" ht="50" customHeight="1" spans="1:5">
-      <c r="A52" s="6" t="s">
+    <row r="52" ht="50" customHeight="1" spans="1:6">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="53" ht="50" customHeight="1" spans="1:5">
-      <c r="A53" s="6" t="s">
+    <row r="53" ht="50" customHeight="1" spans="1:6">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" ht="50" customHeight="1" spans="1:5">
-      <c r="A54" s="6" t="s">
+    <row r="54" ht="50" customHeight="1" spans="1:6">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="F54" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" ht="50" customHeight="1" spans="1:5">
-      <c r="A55" s="4" t="s">
+    <row r="55" ht="50" customHeight="1" spans="1:6">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" ht="50" customHeight="1" spans="1:5">
-      <c r="A56" s="4" t="s">
+    <row r="56" ht="50" customHeight="1" spans="1:6">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" ht="50" customHeight="1" spans="1:5">
-      <c r="A57" s="4" t="s">
+    <row r="57" ht="50" customHeight="1" spans="1:6">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" ht="50" customHeight="1" spans="1:5">
-      <c r="A58" s="4" t="s">
+    <row r="58" ht="50" customHeight="1" spans="1:6">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" ht="50" customHeight="1" spans="1:5">
-      <c r="A59" s="4" t="s">
+    <row r="59" ht="50" customHeight="1" spans="1:6">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="60" ht="50" customHeight="1" spans="1:5">
-      <c r="A60" s="4" t="s">
+    <row r="60" ht="50" customHeight="1" spans="1:6">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" ht="50" customHeight="1" spans="1:5">
-      <c r="A61" s="6" t="s">
+    <row r="61" ht="50" customHeight="1" spans="1:6">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" ht="50" customHeight="1" spans="1:5">
-      <c r="A62" s="6" t="s">
+    <row r="62" ht="50" customHeight="1" spans="1:6">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="E62" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="63" ht="50" customHeight="1" spans="1:5">
-      <c r="A63" s="6" t="s">
+    <row r="63" ht="50" customHeight="1" spans="1:6">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="D63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="E63" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="64" ht="50" customHeight="1" spans="1:5">
-      <c r="A64" s="6" t="s">
+    <row r="64" ht="50" customHeight="1" spans="1:6">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="D64" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="E64" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="F64" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" ht="50" customHeight="1" spans="1:5">
-      <c r="A65" s="8" t="s">
+    <row r="65" ht="50" customHeight="1" spans="1:6">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="F65" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="66" ht="50" customHeight="1" spans="1:5">
-      <c r="A66" s="4" t="s">
+    <row r="66" ht="50" customHeight="1" spans="1:6">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="15" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="67" ht="50" customHeight="1" spans="1:5">
-      <c r="A67" s="4" t="s">
+    <row r="67" ht="50" customHeight="1" spans="1:6">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" ht="50" customHeight="1" spans="1:5">
-      <c r="A68" s="4" t="s">
+    <row r="68" ht="50" customHeight="1" spans="1:7">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="17" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="69" ht="50" customHeight="1" spans="1:5">
-      <c r="A69" s="6" t="s">
+      <c r="G68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" ht="50" customHeight="1" spans="1:6">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="C69" s="7" t="s">
         <v>192</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="70" ht="50" customHeight="1" spans="1:5">
-      <c r="A70" s="6" t="s">
+      <c r="F69" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" ht="50" customHeight="1" spans="1:6">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="C70" s="7" t="s">
         <v>195</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="71" ht="50" customHeight="1" spans="1:5">
-      <c r="A71" s="4" t="s">
+      <c r="F70" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" ht="50" customHeight="1" spans="1:6">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="5" t="s">
+      <c r="D71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="72" ht="50" customHeight="1" spans="1:5">
-      <c r="A72" s="4" t="s">
+      <c r="F71" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" ht="50" customHeight="1" spans="1:6">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="D72" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="73" ht="50" customHeight="1" spans="1:5">
-      <c r="A73" s="10" t="s">
+      <c r="F72" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" ht="50" customHeight="1" spans="1:6">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="10" t="s">
+      <c r="C73" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="D73" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="18" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="74" ht="50" customHeight="1" spans="1:5">
-      <c r="A74" s="10" t="s">
+      <c r="F73" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" ht="50" customHeight="1" spans="1:6">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="10" t="s">
+      <c r="C74" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="D74" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="75" ht="50" customHeight="1" spans="1:5">
-      <c r="A75" s="4" t="s">
+      <c r="F74" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="4" t="s">
+    </row>
+    <row r="75" ht="50" customHeight="1" spans="1:6">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="C75" s="20"/>
+      <c r="D75" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="76" ht="50" customHeight="1" spans="1:5">
-      <c r="A76" s="4" t="s">
+      <c r="F75" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="4" t="s">
+    </row>
+    <row r="76" ht="50" customHeight="1" spans="1:7">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="C76" s="16"/>
+      <c r="D76" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="77" ht="50" customHeight="1" spans="1:5">
-      <c r="A77" s="10" t="s">
+      <c r="F76" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="10" t="s">
+      <c r="G76" t="s">
         <v>215</v>
       </c>
-      <c r="E77" s="13" t="s">
+    </row>
+    <row r="77" ht="50" customHeight="1" spans="1:6">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="78" ht="50" customHeight="1" spans="1:5">
-      <c r="A78" s="14" t="s">
+      <c r="C77" s="23"/>
+      <c r="D77" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="14" t="s">
+      <c r="F77" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="E78" s="15" t="s">
+    </row>
+    <row r="78" ht="50" customHeight="1" spans="1:6">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="79" ht="50" customHeight="1" spans="1:5">
-      <c r="A79" s="4" t="s">
+      <c r="C78" s="23"/>
+      <c r="D78" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="F78" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="E79" s="12" t="s">
+    </row>
+    <row r="79" ht="50" customHeight="1" spans="1:6">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" s="23" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="80" ht="50" customHeight="1" spans="1:5">
-      <c r="A80" s="4" t="s">
+      <c r="C79" s="23"/>
+      <c r="D79" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="F79" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="E80" s="12" t="s">
+    </row>
+    <row r="80" ht="50" customHeight="1" spans="1:6">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="81" ht="50" customHeight="1" spans="1:5">
-      <c r="A81" s="6" t="s">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="6" t="s">
+      <c r="F80" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E81" s="16" t="s">
+    </row>
+    <row r="81" ht="50" customHeight="1" spans="1:6">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="82" ht="50" customHeight="1" spans="1:5">
-      <c r="A82" s="4" t="s">
+      <c r="C81" s="9"/>
+      <c r="D81" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="F81" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="4" t="s">
+    </row>
+    <row r="82" ht="50" customHeight="1" spans="1:6">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="C82" s="20" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="83" ht="50" customHeight="1" spans="1:5">
-      <c r="A83" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="D82" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="F82" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E83" s="12" t="s">
+    </row>
+    <row r="83" ht="50" customHeight="1" spans="1:6">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="20" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="84" ht="50" customHeight="1" spans="1:5">
-      <c r="A84" s="10" t="s">
+      <c r="D83" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="F83" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="10" t="s">
+    </row>
+    <row r="84" ht="50" customHeight="1" spans="1:6">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="C84" s="23" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="85" ht="50" customHeight="1" spans="1:5">
-      <c r="A85" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="D84" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="F84" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="E85" s="16" t="s">
+    </row>
+    <row r="85" ht="50" customHeight="1" spans="1:6">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="86" ht="50" customHeight="1" spans="1:5">
-      <c r="A86" s="4" t="s">
+      <c r="D85" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4" t="s">
+      <c r="F85" s="26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" ht="50" customHeight="1" spans="1:6">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="87" ht="50" customHeight="1" spans="1:5">
-      <c r="A87" s="6" t="s">
+      <c r="E86" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="F86" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="6" t="s">
+    </row>
+    <row r="87" ht="50" customHeight="1" spans="1:6">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="C87" s="9" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="88" ht="50" customHeight="1" spans="1:5">
-      <c r="A88" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="D87" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" ht="50" customHeight="1" spans="1:6">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="89" ht="50" customHeight="1" spans="1:5">
-      <c r="A89" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="D88" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="F88" s="26" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="90" ht="50" customHeight="1" spans="1:5">
-      <c r="A90" s="4" t="s">
+    <row r="89" ht="50" customHeight="1" spans="1:6">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="F89" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="E90" s="12" t="s">
+    </row>
+    <row r="90" ht="50" customHeight="1" spans="1:6">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90" s="20" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="91" ht="50" customHeight="1" spans="1:5">
-      <c r="A91" s="4" t="s">
+      <c r="C90" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="F90" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E91" s="12" t="s">
+    </row>
+    <row r="91" ht="50" customHeight="1" spans="1:6">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91" s="20" t="s">
         <v>259</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <f>SUM(A6:A91)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:XFD50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16383" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="20.25" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1"/>
+    <row r="4" s="1" customFormat="1" spans="2:16384">
+      <c r="B4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="XFD4"/>
+    </row>
+    <row r="5" spans="3:16384">
+      <c r="C5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="XFD5" s="1"/>
+    </row>
+    <row r="6" spans="3:16384">
+      <c r="C6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="XFD6" s="1"/>
+    </row>
+    <row r="7" spans="3:16384">
+      <c r="C7" s="3"/>
+      <c r="XFD7" s="1"/>
+    </row>
+    <row r="8" spans="3:16384">
+      <c r="C8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="XFD8" s="1"/>
+    </row>
+    <row r="9" spans="3:16384">
+      <c r="C9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="XFD9" s="1"/>
+    </row>
+    <row r="10" spans="3:16384">
+      <c r="C10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="XFD10" s="1"/>
+    </row>
+    <row r="11" spans="3:16384">
+      <c r="C11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="XFD11" s="1"/>
+    </row>
+    <row r="12" spans="3:16384">
+      <c r="C12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="XFD12" s="1"/>
+    </row>
+    <row r="13" spans="16384:16384">
+      <c r="XFD13" s="1"/>
+    </row>
+    <row r="14" spans="16384:16384">
+      <c r="XFD14" s="1"/>
+    </row>
+    <row r="15" spans="3:16384">
+      <c r="C15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="XFD15" s="1"/>
+    </row>
+    <row r="16" spans="3:16384">
+      <c r="C16" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="XFD16" s="1"/>
+    </row>
+    <row r="17" spans="3:16384">
+      <c r="C17" s="3"/>
+      <c r="XFD17" s="1"/>
+    </row>
+    <row r="18" spans="2:16384">
+      <c r="B18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="XFD18" s="1"/>
+    </row>
+    <row r="19" spans="3:16384">
+      <c r="C19" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="XFD19" s="1"/>
+    </row>
+    <row r="20" spans="3:16384">
+      <c r="C20" s="3"/>
+      <c r="XFD20" s="1"/>
+    </row>
+    <row r="21" spans="3:16384">
+      <c r="C21" s="3"/>
+      <c r="XFD21" s="1"/>
+    </row>
+    <row r="22" spans="3:16384">
+      <c r="C22" s="3"/>
+      <c r="XFD22" s="1"/>
+    </row>
+    <row r="24" ht="20.25" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" ht="20.25" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="http://opentsdb.net/docs/build/html/api_http/stats/index.html"/>
+    <hyperlink ref="C16" r:id="rId2" display="http://localhost:4242/api/stats"/>
+    <hyperlink ref="C6" r:id="rId3" display="http://opentsdb.net/docs/build/html/user_guide/stats.html"/>
+    <hyperlink ref="C29" r:id="rId4" display="https://blog.csdn.net/liu16659/article/details/82314350"/>
+    <hyperlink ref="C27" r:id="rId5" display="http://opentsdb.net/docs/build/html/api_telnet/index.html"/>
+    <hyperlink ref="C30" r:id="rId6" tooltip="https://blog.csdn.net/xsdxs/article/details/53882504"/>
+    <hyperlink ref="B50" r:id="rId7" display="http://opentsdb.net/docs/build/html/user_guide/cli/import.html"/>
+    <hyperlink ref="B40" r:id="rId8" display="autoscaler.metricstreamers.opentsdbApache" tooltip="https://mvnrepository.com/artifact/com.elastisys/autoscaler.metricstreamers.opentsdb"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/big configuration/监控指标整理 OpenTSDB.xlsx
+++ b/big configuration/监控指标整理 OpenTSDB.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9225"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OpenTSDB Metric" sheetId="4" r:id="rId1"/>
     <sheet name="API" sheetId="5" r:id="rId2"/>
-    <sheet name="metrics stats" sheetId="6" r:id="rId3"/>
+    <sheet name="Web UI stats" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="350">
   <si>
     <t>白色是需要重点关注的指标</t>
   </si>
@@ -655,6 +655,9 @@
     <t>客户端执行的根查找总数</t>
   </si>
   <si>
+    <t>HBase的root 表</t>
+  </si>
+  <si>
     <t>tsd.hbase.meta_lookups</t>
   </si>
   <si>
@@ -667,6 +670,9 @@
     <t>客户端执行的未扩展元表查找的总数</t>
   </si>
   <si>
+    <t>HBase的meta 表</t>
+  </si>
+  <si>
     <t>type=contended</t>
   </si>
   <si>
@@ -688,7 +694,7 @@
     <t>客户端执行的增量请求总数</t>
   </si>
   <si>
-    <t>post 请求数量</t>
+    <t>更新请求？？</t>
   </si>
   <si>
     <t>type=delete</t>
@@ -973,10 +979,193 @@
     <t>metric streamer that retrieves metric values from OpenTSDB</t>
   </si>
   <si>
+    <t>source example</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/kingzl/article/details/38498925</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/WUWENJINWUWENJIN/article/details/44101145</t>
+  </si>
+  <si>
+    <t>https://liyan4770.iteye.com/blog/739113</t>
+  </si>
+  <si>
     <t>CLI</t>
   </si>
   <si>
     <t>http://opentsdb.net/docs/build/html/user_guide/cli/import.html</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>type=open host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=rejected host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=total host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=closed host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=reset host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=timeout host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=unknown host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=telnet host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=http host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=http_plugin host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=put host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=all host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=graph host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=gnuplot host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>method=put host=hadoop-data-01 class=IncomingDataPoints</t>
+  </si>
+  <si>
+    <t>method=scan host=hadoop-data-01 class=TsdbQuery</t>
+  </si>
+  <si>
+    <t>cache=disk host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>cache=miss host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=hbase_errors host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=invalid_values host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=illegal_arguments host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=unknown_metrics host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=socket_writes_blocked host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>tsd.jvm.thread.states</t>
+  </si>
+  <si>
+    <t>state=new host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>state=runnable host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>state=blocked host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>state=waiting host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>state=terminated host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>state=timed_waiting host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>tsd.jvm.thread.count</t>
+  </si>
+  <si>
+    <t>kind=metrics host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>tsd.uid.rejected-assignments</t>
+  </si>
+  <si>
+    <t>kind=tagk host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>kind=tagv host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>tsd.uid.filter.rejected</t>
+  </si>
+  <si>
+    <t>kind=raw host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>kind=aggregate host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>tsd.datapoints.added</t>
+  </si>
+  <si>
+    <t>type=all host=hadoop-data-01 class=TSDB</t>
+  </si>
+  <si>
+    <t>type=uncontended host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=contended host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=increment host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=delete host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=get host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=append host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=rowLock host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=openScanner host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=scan host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>tsd.hbase.connections.idle_closed</t>
+  </si>
+  <si>
+    <t>type=identical host=hadoop-data-01</t>
+  </si>
+  <si>
+    <t>type=variant host=hadoop-data-01</t>
   </si>
 </sst>
 </file>
@@ -984,12 +1173,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,6 +1193,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1060,21 +1255,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,62 +1276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,9 +1299,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,9 +1374,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,7 +1403,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,13 +1412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,25 +1448,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,19 +1550,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,157 +1622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,36 +1667,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1531,8 +1684,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,11 +1725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,10 +1760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1589,208 +1772,214 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2114,18 +2303,16 @@
   <sheetPr/>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="58.875" customWidth="1"/>
-    <col min="6" max="6" width="67.25" style="4" customWidth="1"/>
+    <col min="2" max="4" width="51.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="58.8796296296296" customWidth="1"/>
+    <col min="6" max="6" width="67.25" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -2138,24 +2325,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="26.25" spans="1:6">
+    <row r="5" ht="49.2" spans="1:6">
       <c r="A5">
         <f>SUM(A6:A91)</f>
         <v>33</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2163,19 +2350,19 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2183,39 +2370,39 @@
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="1:6">
+    <row r="8" ht="69" spans="1:6">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2223,39 +2410,39 @@
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="40.5" spans="1:6">
+    <row r="10" ht="41.4" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2263,19 +2450,19 @@
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2283,19 +2470,19 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2303,19 +2490,19 @@
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2323,19 +2510,19 @@
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2343,17 +2530,17 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2361,19 +2548,19 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2381,19 +2568,19 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2401,19 +2588,19 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2421,19 +2608,19 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2441,19 +2628,19 @@
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2461,19 +2648,19 @@
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2481,19 +2668,19 @@
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2501,19 +2688,19 @@
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2521,19 +2708,19 @@
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2541,19 +2728,19 @@
       <c r="A25">
         <v>0</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2561,19 +2748,19 @@
       <c r="A26">
         <v>0</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2581,19 +2768,19 @@
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2601,19 +2788,19 @@
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2621,19 +2808,19 @@
       <c r="A29">
         <v>0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2641,17 +2828,17 @@
       <c r="A30">
         <v>0</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2659,17 +2846,17 @@
       <c r="A31">
         <v>0</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2677,17 +2864,17 @@
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2695,19 +2882,19 @@
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2715,19 +2902,19 @@
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2735,19 +2922,19 @@
       <c r="A35">
         <v>0</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2755,36 +2942,36 @@
       <c r="A36">
         <v>0</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="2:6">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="15" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2792,19 +2979,19 @@
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2812,19 +2999,19 @@
       <c r="A39">
         <v>0</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2832,19 +3019,19 @@
       <c r="A40">
         <v>0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="13" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2852,19 +3039,19 @@
       <c r="A41">
         <v>0</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="13" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2872,19 +3059,19 @@
       <c r="A42">
         <v>0</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2892,19 +3079,19 @@
       <c r="A43">
         <v>0</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="13" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2912,19 +3099,19 @@
       <c r="A44">
         <v>0</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2932,19 +3119,19 @@
       <c r="A45">
         <v>0</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="13" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2952,19 +3139,19 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2972,19 +3159,19 @@
       <c r="A47">
         <v>0</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2992,19 +3179,19 @@
       <c r="A48">
         <v>0</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3012,19 +3199,19 @@
       <c r="A49">
         <v>0</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="13" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3032,19 +3219,19 @@
       <c r="A50">
         <v>0</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3052,19 +3239,19 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="7" t="s">
+      <c r="D51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3072,19 +3259,19 @@
       <c r="A52">
         <v>0</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="13" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3092,19 +3279,19 @@
       <c r="A53">
         <v>0</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3112,19 +3299,19 @@
       <c r="A54">
         <v>0</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="13" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3132,17 +3319,17 @@
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3150,17 +3337,17 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3168,19 +3355,19 @@
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3188,19 +3375,19 @@
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3208,19 +3395,19 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="11" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3228,19 +3415,19 @@
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3248,19 +3435,19 @@
       <c r="A61">
         <v>1</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="11" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3268,19 +3455,19 @@
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="11" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3288,19 +3475,19 @@
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="11" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3308,548 +3495,557 @@
       <c r="A64">
         <v>1</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="65" ht="50" customHeight="1" spans="1:6">
+    <row r="65" ht="50" customHeight="1" spans="1:7">
       <c r="A65">
         <v>0</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="13" t="s">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="17" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="66" ht="50" customHeight="1" spans="1:6">
+      <c r="G65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" ht="50" customHeight="1" spans="1:7">
       <c r="A66">
         <v>0</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C66" s="13" t="s">
+      <c r="B66" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="13" t="s">
+      <c r="C66" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="D66" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="67" ht="50" customHeight="1" spans="1:6">
+      <c r="F66" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" ht="50" customHeight="1" spans="1:7">
       <c r="A67">
         <v>0</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="13" t="s">
+      <c r="B67" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G67" t="s">
         <v>185</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="68" ht="50" customHeight="1" spans="1:7">
       <c r="A68">
         <v>1</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="16" t="s">
+      <c r="B68" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="C68" s="18" t="s">
         <v>190</v>
       </c>
+      <c r="D68" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="G68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" ht="50" customHeight="1" spans="1:6">
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F69" s="8" t="s">
+      <c r="B69" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>194</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="70" ht="50" customHeight="1" spans="1:6">
       <c r="A70">
         <v>1</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F70" s="8" t="s">
+      <c r="B70" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>197</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="71" ht="50" customHeight="1" spans="1:6">
       <c r="A71">
         <v>1</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>199</v>
+      <c r="D71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="72" ht="50" customHeight="1" spans="1:6">
       <c r="A72">
         <v>1</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="8" t="s">
+      <c r="B72" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>202</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="73" ht="50" customHeight="1" spans="1:6">
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F73" s="19" t="s">
+      <c r="B73" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>205</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="74" ht="50" customHeight="1" spans="1:6">
       <c r="A74">
         <v>1</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F74" s="19" t="s">
+      <c r="B74" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="20" t="s">
         <v>208</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="75" ht="50" customHeight="1" spans="1:6">
       <c r="A75">
         <v>0</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="21" t="s">
+      <c r="B75" s="22" t="s">
         <v>211</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="76" ht="50" customHeight="1" spans="1:7">
       <c r="A76">
         <v>1</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="F76" s="22" t="s">
+      <c r="B76" s="18" t="s">
         <v>214</v>
       </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>216</v>
+      </c>
       <c r="G76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" ht="50" customHeight="1" spans="1:6">
       <c r="A77">
         <v>0</v>
       </c>
-      <c r="B77" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F77" s="24" t="s">
+      <c r="B77" s="25" t="s">
         <v>218</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="78" ht="50" customHeight="1" spans="1:6">
       <c r="A78">
         <v>0</v>
       </c>
-      <c r="B78" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F78" s="24" t="s">
+      <c r="B78" s="25" t="s">
         <v>221</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="79" ht="50" customHeight="1" spans="1:6">
       <c r="A79">
         <v>0</v>
       </c>
-      <c r="B79" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" s="24" t="s">
+      <c r="B79" s="25" t="s">
         <v>224</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="80" ht="50" customHeight="1" spans="1:6">
       <c r="A80">
         <v>1</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F80" s="25" t="s">
+      <c r="B80" s="10" t="s">
         <v>227</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="81" ht="50" customHeight="1" spans="1:6">
       <c r="A81">
         <v>0</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F81" s="26" t="s">
+      <c r="B81" s="12" t="s">
         <v>230</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="82" ht="50" customHeight="1" spans="1:6">
       <c r="A82">
         <v>0</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="20" t="s">
+      <c r="B82" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="C82" s="22" t="s">
         <v>234</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="83" ht="50" customHeight="1" spans="1:6">
       <c r="A83">
         <v>0</v>
       </c>
-      <c r="B83" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="F83" s="21" t="s">
+      <c r="B83" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>237</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="84" ht="50" customHeight="1" spans="1:6">
       <c r="A84">
         <v>0</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="23" t="s">
+      <c r="B84" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="C84" s="25" t="s">
         <v>241</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="85" ht="50" customHeight="1" spans="1:6">
       <c r="A85">
         <v>0</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F85" s="26" t="s">
+      <c r="B85" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>244</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="86" ht="50" customHeight="1" spans="1:6">
       <c r="A86">
         <v>0</v>
       </c>
-      <c r="B86" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20" t="s">
+      <c r="B86" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>247</v>
+      <c r="E86" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="87" ht="50" customHeight="1" spans="1:6">
       <c r="A87">
         <v>0</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="9" t="s">
+      <c r="B87" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="C87" s="12" t="s">
         <v>251</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="88" ht="50" customHeight="1" spans="1:6">
       <c r="A88">
         <v>0</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="9" t="s">
+      <c r="B88" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>253</v>
+      <c r="D88" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="89" ht="50" customHeight="1" spans="1:6">
       <c r="A89">
         <v>0</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>255</v>
+      <c r="B89" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="90" ht="50" customHeight="1" spans="1:6">
       <c r="A90">
         <v>0</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F90" s="21" t="s">
+      <c r="B90" s="22" t="s">
         <v>258</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="91" ht="50" customHeight="1" spans="1:6">
       <c r="A91">
         <v>0</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="F91" s="21" t="s">
+      <c r="B91" s="22" t="s">
         <v>261</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -3867,195 +4063,234 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:XFD50"/>
+  <dimension ref="A2:XFD56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16383" width="9" style="1"/>
+    <col min="1" max="16383" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" ht="20.25" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1" spans="2:16384">
-      <c r="B4" s="1" t="s">
-        <v>263</v>
+    <row r="2" ht="20.4" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1"/>
+    <row r="4" s="4" customFormat="1" spans="2:16384">
+      <c r="B4" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="XFD4"/>
     </row>
     <row r="5" spans="3:16384">
-      <c r="C5" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="XFD5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="XFD5" s="4"/>
     </row>
     <row r="6" spans="3:16384">
-      <c r="C6" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="XFD6" s="1"/>
+      <c r="C6" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="XFD6" s="4"/>
     </row>
     <row r="7" spans="3:16384">
-      <c r="C7" s="3"/>
-      <c r="XFD7" s="1"/>
+      <c r="C7" s="6"/>
+      <c r="XFD7" s="4"/>
     </row>
     <row r="8" spans="3:16384">
-      <c r="C8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="XFD8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="XFD8" s="4"/>
     </row>
     <row r="9" spans="3:16384">
-      <c r="C9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="XFD9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="XFD9" s="4"/>
     </row>
     <row r="10" spans="3:16384">
-      <c r="C10" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="XFD10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="XFD10" s="4"/>
     </row>
     <row r="11" spans="3:16384">
-      <c r="C11" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="XFD11" s="1"/>
+      <c r="C11" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="XFD11" s="4"/>
     </row>
     <row r="12" spans="3:16384">
-      <c r="C12" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="XFD12" s="1"/>
+      <c r="C12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="XFD12" s="4"/>
     </row>
     <row r="13" spans="16384:16384">
-      <c r="XFD13" s="1"/>
+      <c r="XFD13" s="4"/>
     </row>
     <row r="14" spans="16384:16384">
-      <c r="XFD14" s="1"/>
+      <c r="XFD14" s="4"/>
     </row>
     <row r="15" spans="3:16384">
-      <c r="C15" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="XFD15" s="1"/>
+      <c r="C15" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="XFD15" s="4"/>
     </row>
     <row r="16" spans="3:16384">
-      <c r="C16" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="XFD16" s="1"/>
+      <c r="C16" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="XFD16" s="4"/>
     </row>
     <row r="17" spans="3:16384">
-      <c r="C17" s="3"/>
-      <c r="XFD17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="XFD17" s="4"/>
     </row>
     <row r="18" spans="2:16384">
-      <c r="B18" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="XFD18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="XFD18" s="4"/>
     </row>
     <row r="19" spans="3:16384">
-      <c r="C19" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="XFD19" s="1"/>
+      <c r="C19" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="XFD19" s="4"/>
     </row>
     <row r="20" spans="3:16384">
-      <c r="C20" s="3"/>
-      <c r="XFD20" s="1"/>
+      <c r="C20" s="6"/>
+      <c r="XFD20" s="4"/>
     </row>
     <row r="21" spans="3:16384">
-      <c r="C21" s="3"/>
-      <c r="XFD21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="XFD21" s="4"/>
     </row>
     <row r="22" spans="3:16384">
-      <c r="C22" s="3"/>
-      <c r="XFD22" s="1"/>
-    </row>
-    <row r="24" ht="20.25" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>275</v>
+      <c r="C22" s="6"/>
+      <c r="XFD22" s="4"/>
+    </row>
+    <row r="24" ht="20.4" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
-        <v>276</v>
+      <c r="B26" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="3" t="s">
-        <v>277</v>
+      <c r="C27" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
-        <v>278</v>
+      <c r="B28" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="3" t="s">
-        <v>279</v>
+      <c r="C29" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
-        <v>280</v>
+      <c r="B32" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
-        <v>281</v>
+      <c r="C33" s="4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>282</v>
+      <c r="A38" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
-        <v>283</v>
+      <c r="B40" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="48" ht="20.25" spans="1:1">
-      <c r="A48" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="2:16384">
+      <c r="B48" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="XFD48"/>
+    </row>
+    <row r="49" s="4" customFormat="1" spans="16384:16384">
+      <c r="XFD49"/>
+    </row>
+    <row r="50" s="4" customFormat="1" spans="16384:16384">
+      <c r="XFD50"/>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="16384:16384">
+      <c r="XFD51"/>
+    </row>
+    <row r="52" s="4" customFormat="1" spans="16384:16384">
+      <c r="XFD52"/>
+    </row>
+    <row r="53" s="4" customFormat="1" spans="16384:16384">
+      <c r="XFD53"/>
+    </row>
+    <row r="54" ht="20.4" spans="1:1">
+      <c r="A54" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="http://opentsdb.net/docs/build/html/api_http/stats/index.html"/>
-    <hyperlink ref="C16" r:id="rId2" display="http://localhost:4242/api/stats"/>
+    <hyperlink ref="C16" r:id="rId2" display="http://localhost:4242/api/stats" tooltip="http://localhost:4242/api/stats"/>
     <hyperlink ref="C6" r:id="rId3" display="http://opentsdb.net/docs/build/html/user_guide/stats.html"/>
     <hyperlink ref="C29" r:id="rId4" display="https://blog.csdn.net/liu16659/article/details/82314350"/>
-    <hyperlink ref="C27" r:id="rId5" display="http://opentsdb.net/docs/build/html/api_telnet/index.html"/>
+    <hyperlink ref="C27" r:id="rId5" display="http://opentsdb.net/docs/build/html/api_telnet/index.html" tooltip="http://opentsdb.net/docs/build/html/api_telnet/index.html"/>
     <hyperlink ref="C30" r:id="rId6" tooltip="https://blog.csdn.net/xsdxs/article/details/53882504"/>
-    <hyperlink ref="B50" r:id="rId7" display="http://opentsdb.net/docs/build/html/user_guide/cli/import.html"/>
+    <hyperlink ref="B56" r:id="rId7" display="http://opentsdb.net/docs/build/html/user_guide/cli/import.html"/>
     <hyperlink ref="B40" r:id="rId8" display="autoscaler.metricstreamers.opentsdbApache" tooltip="https://mvnrepository.com/artifact/com.elastisys/autoscaler.metricstreamers.opentsdb"/>
+    <hyperlink ref="B46" r:id="rId9" display="https://blog.csdn.net/kingzl/article/details/38498925"/>
+    <hyperlink ref="B47" r:id="rId10" display="https://blog.csdn.net/WUWENJINWUWENJIN/article/details/44101145"/>
+    <hyperlink ref="B48" r:id="rId11" display="https://liyan4770.iteye.com/blog/739113"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4065,14 +4300,1393 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="53.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.4" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D10" s="3">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D14" s="3">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D15" s="3">
+        <v>356</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:5">
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:5">
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:5">
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:5">
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:5">
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:5">
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:5">
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:5">
+      <c r="B27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:5">
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:5">
+      <c r="B29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:5">
+      <c r="B30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:5">
+      <c r="B31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:5">
+      <c r="B32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:5">
+      <c r="B33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:5">
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:5">
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:5">
+      <c r="B36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:5">
+      <c r="B37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:5">
+      <c r="B38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:5">
+      <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:5">
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:5">
+      <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:5">
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:5">
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:5">
+      <c r="B44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:5">
+      <c r="B45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D45" s="3">
+        <v>52</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:5">
+      <c r="B46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:5">
+      <c r="B47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:5">
+      <c r="B48" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:5">
+      <c r="B49" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:5">
+      <c r="B50" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D50" s="2">
+        <v>56</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:5">
+      <c r="B51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:5">
+      <c r="B52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:5">
+      <c r="B53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:5">
+      <c r="B54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:5">
+      <c r="B55" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:5">
+      <c r="B56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:5">
+      <c r="B57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D57" s="2">
+        <v>16777214</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:5">
+      <c r="B58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:5">
+      <c r="B59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:5">
+      <c r="B60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:5">
+      <c r="B61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:5">
+      <c r="B62" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:5">
+      <c r="B63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:5">
+      <c r="B64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D64" s="3">
+        <v>16777210</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="2:5">
+      <c r="B65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:5">
+      <c r="B66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:5">
+      <c r="B67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:5">
+      <c r="B68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:5">
+      <c r="B69" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:5">
+      <c r="B70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D70" s="2">
+        <v>8128</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:5">
+      <c r="B71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D71" s="2">
+        <v>16769087</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="2:5">
+      <c r="B72" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:5">
+      <c r="B73" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="2:5">
+      <c r="B74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D74" s="3">
+        <v>9379374800</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="2:5">
+      <c r="B75" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D75" s="3">
+        <v>12163481600</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:5">
+      <c r="B76" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:5">
+      <c r="B77" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:5">
+      <c r="B78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D78" s="2">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="2:5">
+      <c r="B79" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="2:5">
+      <c r="B80" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="2:5">
+      <c r="B81" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:5">
+      <c r="B82" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D82" s="3">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:5">
+      <c r="B83" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:5">
+      <c r="B84" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:5">
+      <c r="B85" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:5">
+      <c r="B86" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:5">
+      <c r="B87" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1560386102</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:5">
+      <c r="B88" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:5">
+      <c r="B89" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="2:5">
+      <c r="B90" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D90" s="2">
+        <v>7</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="2:5">
+      <c r="B91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="2:5">
+      <c r="B92" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D92" s="2">
+        <v>341</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="2:5">
+      <c r="B93" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D93" s="2">
+        <v>382</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="2:5">
+      <c r="B94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="2:5">
+      <c r="B95" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D95" s="2">
+        <v>5</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="2:5">
+      <c r="B96" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="2:5">
+      <c r="B97" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="2:5">
+      <c r="B98" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1560386102</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
